--- a/documents/complete_parallel_test.xlsx
+++ b/documents/complete_parallel_test.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augus\School Work\College\CMSC483\Git\cmsc483\documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="980" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Number of</t>
   </si>
@@ -61,17 +57,71 @@
   <si>
     <t>Individual</t>
   </si>
+  <si>
+    <t>Speedup</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,7 +133,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -91,17 +141,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -160,33 +238,15 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -195,26 +255,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
+                    <a:srgbClr val="ffffff"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
+                    <a:srgbClr val="ffffff"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
@@ -224,12 +284,10 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -237,6 +295,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -254,25 +315,13 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -308,35 +357,27 @@
                   <c:v>384.084</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>311.88433333333336</c:v>
+                  <c:v>311.884333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>406.96833333333331</c:v>
+                  <c:v>406.968333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1225.4556666666667</c:v>
+                  <c:v>1225.45566666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5358.9430000000002</c:v>
+                  <c:v>5358.943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-281287808"/>
-        <c:axId val="-281298144"/>
+        <c:axId val="39027421"/>
+        <c:axId val="54438099"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-281287808"/>
+        <c:axId val="39027421"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -349,26 +390,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
+                        <a:srgbClr val="ffffff"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
+                        <a:srgbClr val="ffffff"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -378,7 +419,329 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54438099"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="54438099"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Runtime (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39027421"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Number of Processors vs. Speedup Factor</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.24768019495735</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.53651193337701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1775215925891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.391049642214719</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0894232314096269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="783956"/>
+        <c:axId val="72801486"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="783956"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Number of Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -388,36 +751,34 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
+              <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
+                    <a:srgbClr val="ffffff"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-281298144"/>
+        <c:crossAx val="72801486"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-281298144"/>
+        <c:axId val="72801486"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -427,7 +788,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="B3B3B3"/>
+                <a:srgbClr val="b3b3b3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -439,36 +800,35 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
+                        <a:srgbClr val="ffffff"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
+                        <a:srgbClr val="ffffff"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Runtime (s)</a:t>
+                  <a:t>Speedup Factor</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -478,31 +838,29 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
+              <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
+                    <a:srgbClr val="ffffff"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-281287808"/>
+        <c:crossAx val="783956"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -510,54 +868,48 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
+            <a:srgbClr val="b3b3b3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7590</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>17280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>63690</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>157995</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>156960</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="0" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="6265440" y="2346120"/>
+        <a:ext cx="5607000" cy="3226680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -567,523 +919,316 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>292320</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="2355120"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F43" activeCellId="0" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1025" width="11.28515625"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="L2" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>2048</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>1365</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0" t="n">
         <v>1348</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0" t="n">
         <v>1365</v>
       </c>
-      <c r="F3">
-        <f>ABS((B3 * C3) - (D3 * E3))</f>
+      <c r="F3" s="0" t="n">
+        <f aca="false">ABS((B3 * C3) - (D3 * E3))</f>
         <v>955500</v>
       </c>
-      <c r="G3">
-        <f>ABS(E3 - C3) + ABS(D3 - B3)</f>
+      <c r="G3" s="0" t="n">
+        <f aca="false">ABS(E3 - C3) + ABS(D3 - B3)</f>
         <v>700</v>
       </c>
-      <c r="H3">
-        <f>AVERAGE(I3,J3,K3)</f>
+      <c r="H3" s="0" t="n">
+        <f aca="false">AVERAGE(I3,J3,K3)</f>
         <v>384.084</v>
       </c>
-      <c r="I3">
-        <v>378.64400000000001</v>
-      </c>
-      <c r="J3">
-        <v>382.39100000000002</v>
-      </c>
-      <c r="K3">
-        <v>391.21699999999998</v>
+      <c r="I3" s="0" t="n">
+        <v>378.644</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>382.391</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>391.217</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <f aca="false">479.214/H3</f>
+        <v>1.24768019495735</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>2048</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>1365</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>1348</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0" t="n">
         <v>1365</v>
       </c>
-      <c r="F4">
-        <f>ABS((B4 * C4) - (D4 * E4))</f>
+      <c r="F4" s="0" t="n">
+        <f aca="false">ABS((B4 * C4) - (D4 * E4))</f>
         <v>955500</v>
       </c>
-      <c r="G4">
-        <f>ABS(E4 - C4) + ABS(D4 - B4)</f>
+      <c r="G4" s="0" t="n">
+        <f aca="false">ABS(E4 - C4) + ABS(D4 - B4)</f>
         <v>700</v>
       </c>
-      <c r="H4">
-        <f>AVERAGE(I4,J4,K4)</f>
-        <v>311.88433333333336</v>
-      </c>
-      <c r="I4">
-        <v>311.44900000000001</v>
-      </c>
-      <c r="J4">
+      <c r="H4" s="0" t="n">
+        <f aca="false">AVERAGE(I4,J4,K4)</f>
+        <v>311.884333333333</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>311.449</v>
+      </c>
+      <c r="J4" s="0" t="n">
         <v>311.654</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="0" t="n">
         <v>312.55</v>
       </c>
+      <c r="L4" s="0" t="n">
+        <f aca="false">479.214/H4</f>
+        <v>1.53651193337701</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>2048</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>1365</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>1348</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0" t="n">
         <v>1365</v>
       </c>
-      <c r="F5">
-        <f>ABS((B5 * C5) - (D5 * E5))</f>
+      <c r="F5" s="0" t="n">
+        <f aca="false">ABS((B5 * C5) - (D5 * E5))</f>
         <v>955500</v>
       </c>
-      <c r="G5">
-        <f>ABS(E5 - C5) + ABS(D5 - B5)</f>
+      <c r="G5" s="0" t="n">
+        <f aca="false">ABS(E5 - C5) + ABS(D5 - B5)</f>
         <v>700</v>
       </c>
-      <c r="H5">
-        <f>AVERAGE(I5,J5,K5)</f>
-        <v>406.96833333333331</v>
-      </c>
-      <c r="I5">
-        <v>407.95499999999998</v>
-      </c>
-      <c r="J5">
-        <v>402.51100000000002</v>
-      </c>
-      <c r="K5">
-        <v>410.43900000000002</v>
+      <c r="H5" s="0" t="n">
+        <f aca="false">AVERAGE(I5,J5,K5)</f>
+        <v>406.968333333333</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>407.955</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>402.511</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>410.439</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <f aca="false">479.214/H5</f>
+        <v>1.1775215925891</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>2048</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>1365</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0" t="n">
         <v>1348</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>1365</v>
       </c>
-      <c r="F6">
-        <f>ABS((B6 * C6) - (D6 * E6))</f>
+      <c r="F6" s="0" t="n">
+        <f aca="false">ABS((B6 * C6) - (D6 * E6))</f>
         <v>955500</v>
       </c>
-      <c r="G6">
-        <f>ABS(E6 - C6) + ABS(D6 - B6)</f>
+      <c r="G6" s="0" t="n">
+        <f aca="false">ABS(E6 - C6) + ABS(D6 - B6)</f>
         <v>700</v>
       </c>
-      <c r="H6">
-        <f>AVERAGE(I6,J6,K6)</f>
-        <v>1225.4556666666667</v>
-      </c>
-      <c r="I6">
-        <v>1224.2460000000001</v>
-      </c>
-      <c r="J6">
-        <v>1233.7729999999999</v>
-      </c>
-      <c r="K6">
+      <c r="H6" s="0" t="n">
+        <f aca="false">AVERAGE(I6,J6,K6)</f>
+        <v>1225.45566666667</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1224.246</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1233.773</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>1218.348</v>
       </c>
+      <c r="L6" s="0" t="n">
+        <f aca="false">479.214/H6</f>
+        <v>0.391049642214719</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>2048</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>1365</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>1348</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>1365</v>
       </c>
-      <c r="F7">
-        <f>ABS((B7 * C7) - (D7 * E7))</f>
+      <c r="F7" s="0" t="n">
+        <f aca="false">ABS((B7 * C7) - (D7 * E7))</f>
         <v>955500</v>
       </c>
-      <c r="G7">
-        <f>ABS(E7 - C7) + ABS(D7 - B7)</f>
+      <c r="G7" s="0" t="n">
+        <f aca="false">ABS(E7 - C7) + ABS(D7 - B7)</f>
         <v>700</v>
       </c>
-      <c r="H7">
-        <f>AVERAGE(I7,J7,K7)</f>
-        <v>5358.9430000000002</v>
-      </c>
-      <c r="I7">
-        <v>5359.7380000000003</v>
-      </c>
-      <c r="J7">
-        <v>5347.7190000000001</v>
-      </c>
-      <c r="K7">
-        <v>5369.3720000000003</v>
+      <c r="H7" s="0" t="n">
+        <f aca="false">AVERAGE(I7,J7,K7)</f>
+        <v>5358.943</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>5359.738</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>5347.719</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>5369.372</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <f aca="false">479.214/H7</f>
+        <v>0.0894232314096269</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
